--- a/natmiOut/OldD7/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Myoc-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Myoc</t>
   </si>
   <si>
     <t>Fzd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>35.3571801099722</v>
+        <v>0.9392963333333334</v>
       </c>
       <c r="H2">
-        <v>35.3571801099722</v>
+        <v>2.817889</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02351740654579802</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02351740654579801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.13165945041385</v>
+        <v>1.316217666666667</v>
       </c>
       <c r="N2">
-        <v>1.13165945041385</v>
+        <v>3.948653</v>
       </c>
       <c r="O2">
-        <v>0.04107187786447414</v>
+        <v>0.04607034270304908</v>
       </c>
       <c r="P2">
-        <v>0.04107187786447414</v>
+        <v>0.04607034270304908</v>
       </c>
       <c r="Q2">
-        <v>40.01228701143464</v>
+        <v>1.236318428168556</v>
       </c>
       <c r="R2">
-        <v>40.01228701143464</v>
+        <v>11.126865853517</v>
       </c>
       <c r="S2">
-        <v>0.04107187786447414</v>
+        <v>0.001083454979051844</v>
       </c>
       <c r="T2">
-        <v>0.04107187786447414</v>
+        <v>0.001083454979051844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>35.3571801099722</v>
+        <v>0.9392963333333334</v>
       </c>
       <c r="H3">
-        <v>35.3571801099722</v>
+        <v>2.817889</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02351740654579802</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02351740654579801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.1997344967758</v>
+        <v>24.233597</v>
       </c>
       <c r="N3">
-        <v>24.1997344967758</v>
+        <v>72.700791</v>
       </c>
       <c r="O3">
-        <v>0.8782929698866524</v>
+        <v>0.8482260548477535</v>
       </c>
       <c r="P3">
-        <v>0.8782929698866524</v>
+        <v>0.8482260548477534</v>
       </c>
       <c r="Q3">
-        <v>855.6343712160094</v>
+        <v>22.76252880557767</v>
       </c>
       <c r="R3">
-        <v>855.6343712160094</v>
+        <v>204.862759250199</v>
       </c>
       <c r="S3">
-        <v>0.8782929698866524</v>
+        <v>0.01994807697459298</v>
       </c>
       <c r="T3">
-        <v>0.8782929698866524</v>
+        <v>0.01994807697459298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>35.3571801099722</v>
+        <v>0.9392963333333334</v>
       </c>
       <c r="H4">
-        <v>35.3571801099722</v>
+        <v>2.817889</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02351740654579802</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02351740654579801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.158398763611895</v>
+        <v>0.2355413333333333</v>
       </c>
       <c r="N4">
-        <v>0.158398763611895</v>
+        <v>0.7066239999999999</v>
       </c>
       <c r="O4">
-        <v>0.005748844911401838</v>
+        <v>0.008244434201283159</v>
       </c>
       <c r="P4">
-        <v>0.005748844911401838</v>
+        <v>0.008244434201283159</v>
       </c>
       <c r="Q4">
-        <v>5.600533614222682</v>
+        <v>0.2212431107484444</v>
       </c>
       <c r="R4">
-        <v>5.600533614222682</v>
+        <v>1.991187996736</v>
       </c>
       <c r="S4">
-        <v>0.005748844911401838</v>
+        <v>0.0001938877108516576</v>
       </c>
       <c r="T4">
-        <v>0.005748844911401838</v>
+        <v>0.0001938877108516575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.9392963333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.817889</v>
+      </c>
+      <c r="I5">
+        <v>0.02351740654579802</v>
+      </c>
+      <c r="J5">
+        <v>0.02351740654579801</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.784383</v>
+      </c>
+      <c r="N5">
+        <v>8.353149</v>
+      </c>
+      <c r="O5">
+        <v>0.09745916824791434</v>
+      </c>
+      <c r="P5">
+        <v>0.09745916824791434</v>
+      </c>
+      <c r="Q5">
+        <v>2.615360742495667</v>
+      </c>
+      <c r="R5">
+        <v>23.538246682461</v>
+      </c>
+      <c r="S5">
+        <v>0.002291986881301531</v>
+      </c>
+      <c r="T5">
+        <v>0.002291986881301531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>37.428193</v>
+      </c>
+      <c r="H6">
+        <v>112.284579</v>
+      </c>
+      <c r="I6">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="J6">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.316217666666667</v>
+      </c>
+      <c r="N6">
+        <v>3.948653</v>
+      </c>
+      <c r="O6">
+        <v>0.04607034270304908</v>
+      </c>
+      <c r="P6">
+        <v>0.04607034270304908</v>
+      </c>
+      <c r="Q6">
+        <v>49.26364885800967</v>
+      </c>
+      <c r="R6">
+        <v>443.3728397220871</v>
+      </c>
+      <c r="S6">
+        <v>0.04317249053752301</v>
+      </c>
+      <c r="T6">
+        <v>0.04317249053752301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>37.428193</v>
+      </c>
+      <c r="H7">
+        <v>112.284579</v>
+      </c>
+      <c r="I7">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="J7">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>24.233597</v>
+      </c>
+      <c r="N7">
+        <v>72.700791</v>
+      </c>
+      <c r="O7">
+        <v>0.8482260548477535</v>
+      </c>
+      <c r="P7">
+        <v>0.8482260548477534</v>
+      </c>
+      <c r="Q7">
+        <v>907.019745600221</v>
+      </c>
+      <c r="R7">
+        <v>8163.177710401989</v>
+      </c>
+      <c r="S7">
+        <v>0.7948721276642787</v>
+      </c>
+      <c r="T7">
+        <v>0.7948721276642786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>37.428193</v>
+      </c>
+      <c r="H8">
+        <v>112.284579</v>
+      </c>
+      <c r="I8">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="J8">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2355413333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.7066239999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.008244434201283159</v>
+      </c>
+      <c r="P8">
+        <v>0.008244434201283159</v>
+      </c>
+      <c r="Q8">
+        <v>8.815886483477332</v>
+      </c>
+      <c r="R8">
+        <v>79.342978351296</v>
+      </c>
+      <c r="S8">
+        <v>0.007725854349213934</v>
+      </c>
+      <c r="T8">
+        <v>0.007725854349213934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>35.3571801099722</v>
-      </c>
-      <c r="H5">
-        <v>35.3571801099722</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.0633533651586</v>
-      </c>
-      <c r="N5">
-        <v>2.0633533651586</v>
-      </c>
-      <c r="O5">
-        <v>0.07488630733747156</v>
-      </c>
-      <c r="P5">
-        <v>0.07488630733747156</v>
-      </c>
-      <c r="Q5">
-        <v>72.95435656242985</v>
-      </c>
-      <c r="R5">
-        <v>72.95435656242985</v>
-      </c>
-      <c r="S5">
-        <v>0.07488630733747156</v>
-      </c>
-      <c r="T5">
-        <v>0.07488630733747156</v>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>37.428193</v>
+      </c>
+      <c r="H9">
+        <v>112.284579</v>
+      </c>
+      <c r="I9">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="J9">
+        <v>0.937099400709813</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.784383</v>
+      </c>
+      <c r="N9">
+        <v>8.353149</v>
+      </c>
+      <c r="O9">
+        <v>0.09745916824791434</v>
+      </c>
+      <c r="P9">
+        <v>0.09745916824791434</v>
+      </c>
+      <c r="Q9">
+        <v>104.214424309919</v>
+      </c>
+      <c r="R9">
+        <v>937.9298187892711</v>
+      </c>
+      <c r="S9">
+        <v>0.09132892815879737</v>
+      </c>
+      <c r="T9">
+        <v>0.09132892815879737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06098166666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.182945</v>
+      </c>
+      <c r="I10">
+        <v>0.001526813845584769</v>
+      </c>
+      <c r="J10">
+        <v>0.001526813845584768</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.316217666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.948653</v>
+      </c>
+      <c r="O10">
+        <v>0.04607034270304908</v>
+      </c>
+      <c r="P10">
+        <v>0.04607034270304908</v>
+      </c>
+      <c r="Q10">
+        <v>0.08026514700944444</v>
+      </c>
+      <c r="R10">
+        <v>0.7223863230850001</v>
+      </c>
+      <c r="S10">
+        <v>7.034083710985055E-05</v>
+      </c>
+      <c r="T10">
+        <v>7.034083710985055E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06098166666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.182945</v>
+      </c>
+      <c r="I11">
+        <v>0.001526813845584769</v>
+      </c>
+      <c r="J11">
+        <v>0.001526813845584768</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.233597</v>
+      </c>
+      <c r="N11">
+        <v>72.700791</v>
+      </c>
+      <c r="O11">
+        <v>0.8482260548477535</v>
+      </c>
+      <c r="P11">
+        <v>0.8482260548477534</v>
+      </c>
+      <c r="Q11">
+        <v>1.477805134388333</v>
+      </c>
+      <c r="R11">
+        <v>13.300246209495</v>
+      </c>
+      <c r="S11">
+        <v>0.001295083284727295</v>
+      </c>
+      <c r="T11">
+        <v>0.001295083284727295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06098166666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.182945</v>
+      </c>
+      <c r="I12">
+        <v>0.001526813845584769</v>
+      </c>
+      <c r="J12">
+        <v>0.001526813845584768</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2355413333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.7066239999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.008244434201283159</v>
+      </c>
+      <c r="P12">
+        <v>0.008244434201283159</v>
+      </c>
+      <c r="Q12">
+        <v>0.01436370307555555</v>
+      </c>
+      <c r="R12">
+        <v>0.12927332768</v>
+      </c>
+      <c r="S12">
+        <v>1.258771628753173E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.258771628753173E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06098166666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.182945</v>
+      </c>
+      <c r="I13">
+        <v>0.001526813845584769</v>
+      </c>
+      <c r="J13">
+        <v>0.001526813845584768</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.784383</v>
+      </c>
+      <c r="N13">
+        <v>8.353149</v>
+      </c>
+      <c r="O13">
+        <v>0.09745916824791434</v>
+      </c>
+      <c r="P13">
+        <v>0.09745916824791434</v>
+      </c>
+      <c r="Q13">
+        <v>0.1697963159783333</v>
+      </c>
+      <c r="R13">
+        <v>1.528166843805</v>
+      </c>
+      <c r="S13">
+        <v>0.0001488020074600911</v>
+      </c>
+      <c r="T13">
+        <v>0.000148802007460091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>1.512001666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.536005</v>
+      </c>
+      <c r="I14">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="J14">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.316217666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.948653</v>
+      </c>
+      <c r="O14">
+        <v>0.04607034270304908</v>
+      </c>
+      <c r="P14">
+        <v>0.04607034270304908</v>
+      </c>
+      <c r="Q14">
+        <v>1.990123305696111</v>
+      </c>
+      <c r="R14">
+        <v>17.911109751265</v>
+      </c>
+      <c r="S14">
+        <v>0.001744056349364387</v>
+      </c>
+      <c r="T14">
+        <v>0.001744056349364387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>1.512001666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.536005</v>
+      </c>
+      <c r="I15">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="J15">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.233597</v>
+      </c>
+      <c r="N15">
+        <v>72.700791</v>
+      </c>
+      <c r="O15">
+        <v>0.8482260548477535</v>
+      </c>
+      <c r="P15">
+        <v>0.8482260548477534</v>
+      </c>
+      <c r="Q15">
+        <v>36.64123905332833</v>
+      </c>
+      <c r="R15">
+        <v>329.771151479955</v>
+      </c>
+      <c r="S15">
+        <v>0.03211076692415445</v>
+      </c>
+      <c r="T15">
+        <v>0.03211076692415445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>1.512001666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.536005</v>
+      </c>
+      <c r="I16">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="J16">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2355413333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.7066239999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.008244434201283159</v>
+      </c>
+      <c r="P16">
+        <v>0.008244434201283159</v>
+      </c>
+      <c r="Q16">
+        <v>0.3561388885688888</v>
+      </c>
+      <c r="R16">
+        <v>3.20524999712</v>
+      </c>
+      <c r="S16">
+        <v>0.0003121044249300356</v>
+      </c>
+      <c r="T16">
+        <v>0.0003121044249300356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>1.512001666666667</v>
+      </c>
+      <c r="H17">
+        <v>4.536005</v>
+      </c>
+      <c r="I17">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="J17">
+        <v>0.03785637889880422</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.784383</v>
+      </c>
+      <c r="N17">
+        <v>8.353149</v>
+      </c>
+      <c r="O17">
+        <v>0.09745916824791434</v>
+      </c>
+      <c r="P17">
+        <v>0.09745916824791434</v>
+      </c>
+      <c r="Q17">
+        <v>4.209991736638333</v>
+      </c>
+      <c r="R17">
+        <v>37.889925629745</v>
+      </c>
+      <c r="S17">
+        <v>0.003689451200355355</v>
+      </c>
+      <c r="T17">
+        <v>0.003689451200355355</v>
       </c>
     </row>
   </sheetData>
